--- a/Zweites Ausbildungsjahr/BP/Preiskalkulation.xlsx
+++ b/Zweites Ausbildungsjahr/BP/Preiskalkulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahd/DEV/OSZIMT-repo-ITA12_aps/Zweites Ausbildungsjahr/BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01562D09-6FB2-834B-9A50-114821E189E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38755AE3-C749-CA45-B11B-FFB9DD9E525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" activeTab="2" xr2:uid="{0DAF5438-6AC0-2E46-834F-82B67386FD62}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{0DAF5438-6AC0-2E46-834F-82B67386FD62}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorwertsklakulation" sheetId="1" r:id="rId1"/>
@@ -551,15 +551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F46D4E-FD76-AA45-B72B-5A9F7BBEB962}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="97.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
@@ -799,9 +799,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
@@ -1037,15 +1037,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251F27BF-DE85-2B49-BE95-C2DFDC1EC221}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">

--- a/Zweites Ausbildungsjahr/BP/Preiskalkulation.xlsx
+++ b/Zweites Ausbildungsjahr/BP/Preiskalkulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahd/DEV/OSZIMT-repo-ITA12_aps/Zweites Ausbildungsjahr/BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38755AE3-C749-CA45-B11B-FFB9DD9E525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8FF238-7F92-FB44-B17F-93620AD217CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{0DAF5438-6AC0-2E46-834F-82B67386FD62}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Zweites Ausbildungsjahr/BP/Preiskalkulation.xlsx
+++ b/Zweites Ausbildungsjahr/BP/Preiskalkulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahd/DEV/OSZIMT-repo-ITA12_aps/Zweites Ausbildungsjahr/BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8FF238-7F92-FB44-B17F-93620AD217CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED757D12-DED3-9A4C-ACD0-606C4DA3D8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{0DAF5438-6AC0-2E46-834F-82B67386FD62}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" activeTab="2" xr2:uid="{0DAF5438-6AC0-2E46-834F-82B67386FD62}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorwertsklakulation" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,6 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -233,7 +232,8 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F46D4E-FD76-AA45-B72B-5A9F7BBEB962}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -559,7 +559,7 @@
   <cols>
     <col min="1" max="1" width="97.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
@@ -567,19 +567,19 @@
         <v>21</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="13"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="31">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>80</v>
       </c>
     </row>
@@ -590,7 +590,7 @@
       <c r="B4" s="4">
         <v>0.12</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <f>C3*B4</f>
         <v>9.6</v>
       </c>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f>C3*(1-B4)</f>
         <v>70.400000000000006</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="B6" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>C5*B6</f>
         <v>1.056</v>
       </c>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f>C5*(1-B6)</f>
         <v>69.344000000000008</v>
       </c>
@@ -634,7 +634,7 @@
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <f>B8</f>
         <v>6</v>
       </c>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <f>C7+C8</f>
         <v>75.344000000000008</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="B10" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <f>C9*B10</f>
         <v>10.548160000000003</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="B11" s="4">
         <v>0.06</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <f>C9*B11</f>
         <v>4.5206400000000002</v>
       </c>
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>C9*(1+B10+B11)/1</f>
         <v>90.412800000000018</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="B13" s="4">
         <v>0.1</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <f>C12*B13</f>
         <v>9.0412800000000022</v>
       </c>
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <f>C12*(1+B13)/1</f>
         <v>99.454080000000033</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="B15" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <f>C14*B15/(1-B15-B16)</f>
         <v>2.8094372881355945</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="B16" s="4">
         <v>0.09</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <f>C14*B16/(1-B15-B16)</f>
         <v>10.113974237288138</v>
       </c>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <f>C14*1/(1-B15-B16)</f>
         <v>112.37749152542376</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="B18" s="4">
         <v>0.1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <f>C17*B18/(1-B18)</f>
         <v>12.486387947269309</v>
       </c>
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <f>C17*1/(1-B18)</f>
         <v>124.86387947269307</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="B20" s="4">
         <v>0.16</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <f>C19*B20</f>
         <v>19.978220715630894</v>
       </c>
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <f>C19*(1+B20)/1</f>
         <v>144.84210018832394</v>
       </c>
@@ -801,39 +801,39 @@
   <cols>
     <col min="1" max="1" width="102.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="23"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="31">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="24">
+      <c r="B3" s="16"/>
+      <c r="C3" s="23">
         <f>ROUND(C5*1/(1-B4),2)</f>
         <v>3451.14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>0.1</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <f>ROUND(C5*B4/(1-B4),2)</f>
         <v>345.11</v>
       </c>
@@ -843,41 +843,41 @@
         <v>2</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f>ROUND(C7*1/(1-B6),2)</f>
         <v>3106.03</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>0.01</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <f>ROUND(C7*B6/(1-B6),2)</f>
         <v>31.06</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="24">
+      <c r="B7" s="19"/>
+      <c r="C7" s="23">
         <f>ROUND(C9-B8,2)</f>
         <v>3074.97</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>34</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <f>B8</f>
         <v>34</v>
       </c>
@@ -887,31 +887,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <f>ROUND(C12*1/(1+B10+B11),2)</f>
         <v>3108.97</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>0.45</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <f>ROUND(C12*B10/(1+B10+B11),2)</f>
         <v>1399.03</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>0</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <f>ROUND(C12*B11/(1+B10+B11),2)</f>
         <v>0</v>
       </c>
@@ -921,19 +921,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f>ROUND(C14*1/(1+B13),2)</f>
         <v>4508</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>0.24</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <f>ROUND(C14*B13/(1+B13),2)</f>
         <v>1081.92</v>
       </c>
@@ -943,31 +943,31 @@
         <v>11</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f>ROUND(C17*(1-B15-B16)/1,2)</f>
         <v>5589.92</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f>ROUND(C17*B15,2)</f>
         <v>114.08</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>0</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <f>ROUND(C17*B16,2)</f>
         <v>0</v>
       </c>
@@ -977,19 +977,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <f>ROUND(C19*(1-B18)/1,2)</f>
         <v>5704</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>0.08</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <f>ROUND(C19*B18,2)</f>
         <v>496</v>
       </c>
@@ -999,19 +999,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <f>ROUND(C21*1/(1+B20),2)</f>
         <v>6200</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>0.19</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <f>ROUND(C21*B20/(1+B20),2)</f>
         <v>1178</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>7378</v>
       </c>
     </row>
@@ -1037,46 +1037,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251F27BF-DE85-2B49-BE95-C2DFDC1EC221}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="97.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="31">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="11">
+      <c r="B3" s="16"/>
+      <c r="C3" s="13">
         <v>3451.14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>0.1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="12">
         <f>C3*B4</f>
         <v>345.11400000000003</v>
       </c>
@@ -1086,41 +1086,41 @@
         <v>2</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <f>C3*(1-B4)</f>
         <v>3106.0259999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>0.01</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="12">
         <f>C5*B6</f>
         <v>31.06026</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="11">
+      <c r="B7" s="19"/>
+      <c r="C7" s="13">
         <f>C5*(1-B6)</f>
         <v>3074.9657399999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>34</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="12">
         <f>B8</f>
         <v>34</v>
       </c>
@@ -1130,31 +1130,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <f>C7+C8</f>
         <v>3108.9657399999996</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>0.45</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="12">
         <f>C9*B10</f>
         <v>1399.0345829999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <f>C9*B11</f>
         <v>0</v>
       </c>
@@ -1164,16 +1164,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <f>C9*(1+B10+B11)/1</f>
         <v>4508.0003229999993</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <f>C13*1/C12</f>
         <v>0.2087394091916584</v>
       </c>
@@ -1187,31 +1187,31 @@
         <v>11</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <f>C17*(1-B15-B16)/1</f>
         <v>5448.9976470588244</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>0.02</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="12">
         <f>C17*B15</f>
         <v>111.20403361344539</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>0</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="12">
         <f>C17*B16</f>
         <v>0</v>
       </c>
@@ -1221,19 +1221,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <f>C19*(1-B18)/1</f>
         <v>5560.2016806722695</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>0.08</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="12">
         <f>C19*B18</f>
         <v>483.49579831932772</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="11">
+      <c r="C19" s="13">
         <f>C21*1/(1+B20)</f>
         <v>6043.6974789915967</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>0.19</v>
       </c>
       <c r="C20" s="27">
@@ -1265,7 +1265,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>7192</v>
       </c>
     </row>
